--- a/Working_data/bsm2.xlsx
+++ b/Working_data/bsm2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10619235_polimi_it/Documents/Documenti/GitHub/AD-OCS/Working_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_EA74CB87407CDA0F6235547658512E7835BC9001" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5DF59A-6FB0-4304-B9CD-F609182F875B}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_EA74CB87407CDA0F6235547658512E7835BC9001" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35725579-E5A2-4C42-B2BC-C49E65F3664F}"/>
   <bookViews>
-    <workbookView xWindow="-20600" yWindow="-110" windowWidth="20710" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_Values" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Deviations" sheetId="3" r:id="rId3"/>
     <sheet name="Reactor" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -186,7 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N28" sqref="D16:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,6 +1081,21 @@
       <c r="N13">
         <v>6.1658553649163332</v>
       </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1079,7 +1107,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,19 +1142,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1.2E-2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>4.9923000000000003E-4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>40</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>32</v>
       </c>
       <c r="F2">
@@ -1152,7 +1180,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A2:G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1181,48 +1209,48 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>1.2</v>
       </c>
-      <c r="G2" s="2">
-        <v>1.2</v>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1.5</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
